--- a/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_first_since_2021_GVA.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_GVA_matched_to_ifoCAST_since_2021/ifo_qoq_matched_errors_first_since_2021_GVA.xlsx
@@ -823,6 +823,9 @@
       <c r="I12">
         <v>0.4581899536236866</v>
       </c>
+      <c r="J12">
+        <v>0.1485032540344368</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -849,6 +852,9 @@
       <c r="H13">
         <v>0.4993544712360053</v>
       </c>
+      <c r="I13">
+        <v>0.1734537503564907</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -872,6 +878,9 @@
       <c r="G14">
         <v>0.5498872108380217</v>
       </c>
+      <c r="H14">
+        <v>0.2422520263583712</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -892,6 +901,9 @@
       <c r="F15">
         <v>0.5893544712360053</v>
       </c>
+      <c r="G15">
+        <v>0.2534537503564908</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -909,8 +921,11 @@
       <c r="E16">
         <v>0.6193544712360053</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16">
+        <v>0.381103329907261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -923,8 +938,11 @@
       <c r="D17">
         <v>0.3498282003904753</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0.04235042473292953</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -934,18 +952,27 @@
       <c r="C18">
         <v>0.4001948507169847</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18">
+        <v>0.07961008106920435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
         <v>0.2465333054190486</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19">
+        <v>0.02893023050567838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.02940328597706714</v>
       </c>
     </row>
   </sheetData>
